--- a/data/7139.xlsx
+++ b/data/7139.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I1217"/>
+  <dimension ref="A1:I1218"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -43249,6 +43249,41 @@
         <v>81000</v>
       </c>
     </row>
+    <row r="1218">
+      <c r="A1218" t="n">
+        <v>1581379200</v>
+      </c>
+      <c r="B1218" t="inlineStr">
+        <is>
+          <t>2020-02-11</t>
+        </is>
+      </c>
+      <c r="C1218" t="inlineStr">
+        <is>
+          <t>7139</t>
+        </is>
+      </c>
+      <c r="D1218" t="inlineStr">
+        <is>
+          <t>NICE</t>
+        </is>
+      </c>
+      <c r="E1218" t="n">
+        <v>0.055</v>
+      </c>
+      <c r="F1218" t="n">
+        <v>0.055</v>
+      </c>
+      <c r="G1218" t="n">
+        <v>0.055</v>
+      </c>
+      <c r="H1218" t="n">
+        <v>0.055</v>
+      </c>
+      <c r="I1218" t="n">
+        <v>120900</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/7139.xlsx
+++ b/data/7139.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I1218"/>
+  <dimension ref="A1:I1219"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -43284,6 +43284,41 @@
         <v>120900</v>
       </c>
     </row>
+    <row r="1219">
+      <c r="A1219" t="n">
+        <v>1581465600</v>
+      </c>
+      <c r="B1219" t="inlineStr">
+        <is>
+          <t>2020-02-12</t>
+        </is>
+      </c>
+      <c r="C1219" t="inlineStr">
+        <is>
+          <t>7139</t>
+        </is>
+      </c>
+      <c r="D1219" t="inlineStr">
+        <is>
+          <t>NICE</t>
+        </is>
+      </c>
+      <c r="E1219" t="n">
+        <v>0.055</v>
+      </c>
+      <c r="F1219" t="n">
+        <v>0.055</v>
+      </c>
+      <c r="G1219" t="n">
+        <v>0.055</v>
+      </c>
+      <c r="H1219" t="n">
+        <v>0.055</v>
+      </c>
+      <c r="I1219" t="n">
+        <v>30000</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/7139.xlsx
+++ b/data/7139.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I1219"/>
+  <dimension ref="A1:I1220"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -43319,6 +43319,41 @@
         <v>30000</v>
       </c>
     </row>
+    <row r="1220">
+      <c r="A1220" t="n">
+        <v>1581552000</v>
+      </c>
+      <c r="B1220" t="inlineStr">
+        <is>
+          <t>2020-02-13</t>
+        </is>
+      </c>
+      <c r="C1220" t="inlineStr">
+        <is>
+          <t>7139</t>
+        </is>
+      </c>
+      <c r="D1220" t="inlineStr">
+        <is>
+          <t>NICE</t>
+        </is>
+      </c>
+      <c r="E1220" t="n">
+        <v>0.055</v>
+      </c>
+      <c r="F1220" t="n">
+        <v>0.06</v>
+      </c>
+      <c r="G1220" t="n">
+        <v>0.055</v>
+      </c>
+      <c r="H1220" t="n">
+        <v>0.06</v>
+      </c>
+      <c r="I1220" t="n">
+        <v>71200</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/7139.xlsx
+++ b/data/7139.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I1220"/>
+  <dimension ref="A1:I1221"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -43354,6 +43354,41 @@
         <v>71200</v>
       </c>
     </row>
+    <row r="1221">
+      <c r="A1221" t="n">
+        <v>1581638400</v>
+      </c>
+      <c r="B1221" t="inlineStr">
+        <is>
+          <t>2020-02-14</t>
+        </is>
+      </c>
+      <c r="C1221" t="inlineStr">
+        <is>
+          <t>7139</t>
+        </is>
+      </c>
+      <c r="D1221" t="inlineStr">
+        <is>
+          <t>NICE</t>
+        </is>
+      </c>
+      <c r="E1221" t="n">
+        <v>0.06</v>
+      </c>
+      <c r="F1221" t="n">
+        <v>0.06</v>
+      </c>
+      <c r="G1221" t="n">
+        <v>0.055</v>
+      </c>
+      <c r="H1221" t="n">
+        <v>0.06</v>
+      </c>
+      <c r="I1221" t="n">
+        <v>12100</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/7139.xlsx
+++ b/data/7139.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I1221"/>
+  <dimension ref="A1:I1222"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -43389,6 +43389,41 @@
         <v>12100</v>
       </c>
     </row>
+    <row r="1222">
+      <c r="A1222" t="n">
+        <v>1581897600</v>
+      </c>
+      <c r="B1222" t="inlineStr">
+        <is>
+          <t>2020-02-17</t>
+        </is>
+      </c>
+      <c r="C1222" t="inlineStr">
+        <is>
+          <t>7139</t>
+        </is>
+      </c>
+      <c r="D1222" t="inlineStr">
+        <is>
+          <t>NICE</t>
+        </is>
+      </c>
+      <c r="E1222" t="n">
+        <v>0.06</v>
+      </c>
+      <c r="F1222" t="n">
+        <v>0.06</v>
+      </c>
+      <c r="G1222" t="n">
+        <v>0.055</v>
+      </c>
+      <c r="H1222" t="n">
+        <v>0.06</v>
+      </c>
+      <c r="I1222" t="n">
+        <v>550900</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/7139.xlsx
+++ b/data/7139.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I1222"/>
+  <dimension ref="A1:I1223"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -43424,6 +43424,41 @@
         <v>550900</v>
       </c>
     </row>
+    <row r="1223">
+      <c r="A1223" t="n">
+        <v>1581984000</v>
+      </c>
+      <c r="B1223" t="inlineStr">
+        <is>
+          <t>2020-02-18</t>
+        </is>
+      </c>
+      <c r="C1223" t="inlineStr">
+        <is>
+          <t>7139</t>
+        </is>
+      </c>
+      <c r="D1223" t="inlineStr">
+        <is>
+          <t>NICE</t>
+        </is>
+      </c>
+      <c r="E1223" t="n">
+        <v>0.055</v>
+      </c>
+      <c r="F1223" t="n">
+        <v>0.06</v>
+      </c>
+      <c r="G1223" t="n">
+        <v>0.05</v>
+      </c>
+      <c r="H1223" t="n">
+        <v>0.06</v>
+      </c>
+      <c r="I1223" t="n">
+        <v>56100</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/7139.xlsx
+++ b/data/7139.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I1223"/>
+  <dimension ref="A1:I1224"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -43459,6 +43459,41 @@
         <v>56100</v>
       </c>
     </row>
+    <row r="1224">
+      <c r="A1224" t="n">
+        <v>1582070400</v>
+      </c>
+      <c r="B1224" t="inlineStr">
+        <is>
+          <t>2020-02-19</t>
+        </is>
+      </c>
+      <c r="C1224" t="inlineStr">
+        <is>
+          <t>7139</t>
+        </is>
+      </c>
+      <c r="D1224" t="inlineStr">
+        <is>
+          <t>NICE</t>
+        </is>
+      </c>
+      <c r="E1224" t="n">
+        <v>0.05</v>
+      </c>
+      <c r="F1224" t="n">
+        <v>0.06</v>
+      </c>
+      <c r="G1224" t="n">
+        <v>0.05</v>
+      </c>
+      <c r="H1224" t="n">
+        <v>0.06</v>
+      </c>
+      <c r="I1224" t="n">
+        <v>218000</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/7139.xlsx
+++ b/data/7139.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I1224"/>
+  <dimension ref="A1:I1225"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -43494,6 +43494,41 @@
         <v>218000</v>
       </c>
     </row>
+    <row r="1225">
+      <c r="A1225" t="n">
+        <v>1582156800</v>
+      </c>
+      <c r="B1225" t="inlineStr">
+        <is>
+          <t>2020-02-20</t>
+        </is>
+      </c>
+      <c r="C1225" t="inlineStr">
+        <is>
+          <t>7139</t>
+        </is>
+      </c>
+      <c r="D1225" t="inlineStr">
+        <is>
+          <t>NICE</t>
+        </is>
+      </c>
+      <c r="E1225" t="n">
+        <v>0.055</v>
+      </c>
+      <c r="F1225" t="n">
+        <v>0.06</v>
+      </c>
+      <c r="G1225" t="n">
+        <v>0.055</v>
+      </c>
+      <c r="H1225" t="n">
+        <v>0.06</v>
+      </c>
+      <c r="I1225" t="n">
+        <v>182800</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/7139.xlsx
+++ b/data/7139.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I1225"/>
+  <dimension ref="A1:I1226"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -43529,6 +43529,41 @@
         <v>182800</v>
       </c>
     </row>
+    <row r="1226">
+      <c r="A1226" t="n">
+        <v>1582243200</v>
+      </c>
+      <c r="B1226" t="inlineStr">
+        <is>
+          <t>2020-02-21</t>
+        </is>
+      </c>
+      <c r="C1226" t="inlineStr">
+        <is>
+          <t>7139</t>
+        </is>
+      </c>
+      <c r="D1226" t="inlineStr">
+        <is>
+          <t>NICE</t>
+        </is>
+      </c>
+      <c r="E1226" t="n">
+        <v>0.055</v>
+      </c>
+      <c r="F1226" t="n">
+        <v>0.06</v>
+      </c>
+      <c r="G1226" t="n">
+        <v>0.05</v>
+      </c>
+      <c r="H1226" t="n">
+        <v>0.06</v>
+      </c>
+      <c r="I1226" t="n">
+        <v>193500</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/7139.xlsx
+++ b/data/7139.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I1226"/>
+  <dimension ref="A1:I1227"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -43564,6 +43564,41 @@
         <v>193500</v>
       </c>
     </row>
+    <row r="1227">
+      <c r="A1227" t="n">
+        <v>1582502400</v>
+      </c>
+      <c r="B1227" t="inlineStr">
+        <is>
+          <t>2020-02-24</t>
+        </is>
+      </c>
+      <c r="C1227" t="inlineStr">
+        <is>
+          <t>7139</t>
+        </is>
+      </c>
+      <c r="D1227" t="inlineStr">
+        <is>
+          <t>NICE</t>
+        </is>
+      </c>
+      <c r="E1227" t="n">
+        <v>0.055</v>
+      </c>
+      <c r="F1227" t="n">
+        <v>0.06</v>
+      </c>
+      <c r="G1227" t="n">
+        <v>0.055</v>
+      </c>
+      <c r="H1227" t="n">
+        <v>0.06</v>
+      </c>
+      <c r="I1227" t="n">
+        <v>256000</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/7139.xlsx
+++ b/data/7139.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I1227"/>
+  <dimension ref="A1:I1228"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -43599,6 +43599,43 @@
         <v>256000</v>
       </c>
     </row>
+    <row r="1228">
+      <c r="A1228" t="n">
+        <v>1582588800</v>
+      </c>
+      <c r="B1228" t="inlineStr">
+        <is>
+          <t>2020-02-25</t>
+        </is>
+      </c>
+      <c r="C1228" t="inlineStr">
+        <is>
+          <t>7139</t>
+        </is>
+      </c>
+      <c r="D1228" t="inlineStr">
+        <is>
+          <t>NICE</t>
+        </is>
+      </c>
+      <c r="E1228" t="n">
+        <v>0.06</v>
+      </c>
+      <c r="F1228" t="n">
+        <v>0.06</v>
+      </c>
+      <c r="G1228" t="n">
+        <v>0.06</v>
+      </c>
+      <c r="H1228" t="n">
+        <v>0.06</v>
+      </c>
+      <c r="I1228" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/7139.xlsx
+++ b/data/7139.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I1228"/>
+  <dimension ref="A1:I1229"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -43636,6 +43636,41 @@
         </is>
       </c>
     </row>
+    <row r="1229">
+      <c r="A1229" t="n">
+        <v>1582675200</v>
+      </c>
+      <c r="B1229" t="inlineStr">
+        <is>
+          <t>2020-02-26</t>
+        </is>
+      </c>
+      <c r="C1229" t="inlineStr">
+        <is>
+          <t>7139</t>
+        </is>
+      </c>
+      <c r="D1229" t="inlineStr">
+        <is>
+          <t>NICE</t>
+        </is>
+      </c>
+      <c r="E1229" t="n">
+        <v>0.055</v>
+      </c>
+      <c r="F1229" t="n">
+        <v>0.06</v>
+      </c>
+      <c r="G1229" t="n">
+        <v>0.055</v>
+      </c>
+      <c r="H1229" t="n">
+        <v>0.06</v>
+      </c>
+      <c r="I1229" t="n">
+        <v>300200</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/7139.xlsx
+++ b/data/7139.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I1229"/>
+  <dimension ref="A1:I1231"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -43671,6 +43671,76 @@
         <v>300200</v>
       </c>
     </row>
+    <row r="1230">
+      <c r="A1230" t="n">
+        <v>1582761600</v>
+      </c>
+      <c r="B1230" t="inlineStr">
+        <is>
+          <t>2020-02-27</t>
+        </is>
+      </c>
+      <c r="C1230" t="inlineStr">
+        <is>
+          <t>7139</t>
+        </is>
+      </c>
+      <c r="D1230" t="inlineStr">
+        <is>
+          <t>NICE</t>
+        </is>
+      </c>
+      <c r="E1230" t="n">
+        <v>0.055</v>
+      </c>
+      <c r="F1230" t="n">
+        <v>0.055</v>
+      </c>
+      <c r="G1230" t="n">
+        <v>0.05</v>
+      </c>
+      <c r="H1230" t="n">
+        <v>0.055</v>
+      </c>
+      <c r="I1230" t="n">
+        <v>71000</v>
+      </c>
+    </row>
+    <row r="1231">
+      <c r="A1231" t="n">
+        <v>1582848000</v>
+      </c>
+      <c r="B1231" t="inlineStr">
+        <is>
+          <t>2020-02-28</t>
+        </is>
+      </c>
+      <c r="C1231" t="inlineStr">
+        <is>
+          <t>7139</t>
+        </is>
+      </c>
+      <c r="D1231" t="inlineStr">
+        <is>
+          <t>NICE</t>
+        </is>
+      </c>
+      <c r="E1231" t="n">
+        <v>0.05</v>
+      </c>
+      <c r="F1231" t="n">
+        <v>0.055</v>
+      </c>
+      <c r="G1231" t="n">
+        <v>0.045</v>
+      </c>
+      <c r="H1231" t="n">
+        <v>0.055</v>
+      </c>
+      <c r="I1231" t="n">
+        <v>1229800</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/7139.xlsx
+++ b/data/7139.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I1231"/>
+  <dimension ref="A1:I1233"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -43741,6 +43741,76 @@
         <v>1229800</v>
       </c>
     </row>
+    <row r="1232">
+      <c r="A1232" t="n">
+        <v>1583107200</v>
+      </c>
+      <c r="B1232" t="inlineStr">
+        <is>
+          <t>2020-03-02</t>
+        </is>
+      </c>
+      <c r="C1232" t="inlineStr">
+        <is>
+          <t>7139</t>
+        </is>
+      </c>
+      <c r="D1232" t="inlineStr">
+        <is>
+          <t>NICE</t>
+        </is>
+      </c>
+      <c r="E1232" t="n">
+        <v>0.05</v>
+      </c>
+      <c r="F1232" t="n">
+        <v>0.055</v>
+      </c>
+      <c r="G1232" t="n">
+        <v>0.05</v>
+      </c>
+      <c r="H1232" t="n">
+        <v>0.055</v>
+      </c>
+      <c r="I1232" t="n">
+        <v>122000</v>
+      </c>
+    </row>
+    <row r="1233">
+      <c r="A1233" t="n">
+        <v>1583193600</v>
+      </c>
+      <c r="B1233" t="inlineStr">
+        <is>
+          <t>2020-03-03</t>
+        </is>
+      </c>
+      <c r="C1233" t="inlineStr">
+        <is>
+          <t>7139</t>
+        </is>
+      </c>
+      <c r="D1233" t="inlineStr">
+        <is>
+          <t>NICE</t>
+        </is>
+      </c>
+      <c r="E1233" t="n">
+        <v>0.05</v>
+      </c>
+      <c r="F1233" t="n">
+        <v>0.055</v>
+      </c>
+      <c r="G1233" t="n">
+        <v>0.05</v>
+      </c>
+      <c r="H1233" t="n">
+        <v>0.055</v>
+      </c>
+      <c r="I1233" t="n">
+        <v>150500</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/7139.xlsx
+++ b/data/7139.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I1233"/>
+  <dimension ref="A1:I1234"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -43811,6 +43811,41 @@
         <v>150500</v>
       </c>
     </row>
+    <row r="1234">
+      <c r="A1234" t="n">
+        <v>1583280000</v>
+      </c>
+      <c r="B1234" t="inlineStr">
+        <is>
+          <t>2020-03-04</t>
+        </is>
+      </c>
+      <c r="C1234" t="inlineStr">
+        <is>
+          <t>7139</t>
+        </is>
+      </c>
+      <c r="D1234" t="inlineStr">
+        <is>
+          <t>NICE</t>
+        </is>
+      </c>
+      <c r="E1234" t="n">
+        <v>0.05</v>
+      </c>
+      <c r="F1234" t="n">
+        <v>0.05</v>
+      </c>
+      <c r="G1234" t="n">
+        <v>0.05</v>
+      </c>
+      <c r="H1234" t="n">
+        <v>0.05</v>
+      </c>
+      <c r="I1234" t="n">
+        <v>120000</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/7139.xlsx
+++ b/data/7139.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I1234"/>
+  <dimension ref="A1:I1235"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -43846,6 +43846,41 @@
         <v>120000</v>
       </c>
     </row>
+    <row r="1235">
+      <c r="A1235" t="n">
+        <v>1583366400</v>
+      </c>
+      <c r="B1235" t="inlineStr">
+        <is>
+          <t>2020-03-05</t>
+        </is>
+      </c>
+      <c r="C1235" t="inlineStr">
+        <is>
+          <t>7139</t>
+        </is>
+      </c>
+      <c r="D1235" t="inlineStr">
+        <is>
+          <t>NICE</t>
+        </is>
+      </c>
+      <c r="E1235" t="n">
+        <v>0.045</v>
+      </c>
+      <c r="F1235" t="n">
+        <v>0.055</v>
+      </c>
+      <c r="G1235" t="n">
+        <v>0.045</v>
+      </c>
+      <c r="H1235" t="n">
+        <v>0.05</v>
+      </c>
+      <c r="I1235" t="n">
+        <v>244300</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/7139.xlsx
+++ b/data/7139.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I1235"/>
+  <dimension ref="A1:I1236"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -43881,6 +43881,41 @@
         <v>244300</v>
       </c>
     </row>
+    <row r="1236">
+      <c r="A1236" t="n">
+        <v>1583452800</v>
+      </c>
+      <c r="B1236" t="inlineStr">
+        <is>
+          <t>2020-03-06</t>
+        </is>
+      </c>
+      <c r="C1236" t="inlineStr">
+        <is>
+          <t>7139</t>
+        </is>
+      </c>
+      <c r="D1236" t="inlineStr">
+        <is>
+          <t>NICE</t>
+        </is>
+      </c>
+      <c r="E1236" t="n">
+        <v>0.05</v>
+      </c>
+      <c r="F1236" t="n">
+        <v>0.05</v>
+      </c>
+      <c r="G1236" t="n">
+        <v>0.05</v>
+      </c>
+      <c r="H1236" t="n">
+        <v>0.05</v>
+      </c>
+      <c r="I1236" t="n">
+        <v>209000</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/7139.xlsx
+++ b/data/7139.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I1236"/>
+  <dimension ref="A1:I1237"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -43916,6 +43916,41 @@
         <v>209000</v>
       </c>
     </row>
+    <row r="1237">
+      <c r="A1237" t="n">
+        <v>1583712000</v>
+      </c>
+      <c r="B1237" t="inlineStr">
+        <is>
+          <t>2020-03-09</t>
+        </is>
+      </c>
+      <c r="C1237" t="inlineStr">
+        <is>
+          <t>7139</t>
+        </is>
+      </c>
+      <c r="D1237" t="inlineStr">
+        <is>
+          <t>NICE</t>
+        </is>
+      </c>
+      <c r="E1237" t="n">
+        <v>0.05</v>
+      </c>
+      <c r="F1237" t="n">
+        <v>0.05</v>
+      </c>
+      <c r="G1237" t="n">
+        <v>0.04</v>
+      </c>
+      <c r="H1237" t="n">
+        <v>0.045</v>
+      </c>
+      <c r="I1237" t="n">
+        <v>529300</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/7139.xlsx
+++ b/data/7139.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I1237"/>
+  <dimension ref="A1:I1239"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -43951,6 +43951,76 @@
         <v>529300</v>
       </c>
     </row>
+    <row r="1238">
+      <c r="A1238" t="n">
+        <v>1583798400</v>
+      </c>
+      <c r="B1238" t="inlineStr">
+        <is>
+          <t>2020-03-10</t>
+        </is>
+      </c>
+      <c r="C1238" t="inlineStr">
+        <is>
+          <t>7139</t>
+        </is>
+      </c>
+      <c r="D1238" t="inlineStr">
+        <is>
+          <t>NICE</t>
+        </is>
+      </c>
+      <c r="E1238" t="n">
+        <v>0.04</v>
+      </c>
+      <c r="F1238" t="n">
+        <v>0.045</v>
+      </c>
+      <c r="G1238" t="n">
+        <v>0.04</v>
+      </c>
+      <c r="H1238" t="n">
+        <v>0.045</v>
+      </c>
+      <c r="I1238" t="n">
+        <v>932500</v>
+      </c>
+    </row>
+    <row r="1239">
+      <c r="A1239" t="n">
+        <v>1583884800</v>
+      </c>
+      <c r="B1239" t="inlineStr">
+        <is>
+          <t>2020-03-11</t>
+        </is>
+      </c>
+      <c r="C1239" t="inlineStr">
+        <is>
+          <t>7139</t>
+        </is>
+      </c>
+      <c r="D1239" t="inlineStr">
+        <is>
+          <t>NICE</t>
+        </is>
+      </c>
+      <c r="E1239" t="n">
+        <v>0.04</v>
+      </c>
+      <c r="F1239" t="n">
+        <v>0.045</v>
+      </c>
+      <c r="G1239" t="n">
+        <v>0.04</v>
+      </c>
+      <c r="H1239" t="n">
+        <v>0.04</v>
+      </c>
+      <c r="I1239" t="n">
+        <v>262200</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/7139.xlsx
+++ b/data/7139.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I1239"/>
+  <dimension ref="A1:I1240"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -44021,6 +44021,41 @@
         <v>262200</v>
       </c>
     </row>
+    <row r="1240">
+      <c r="A1240" t="n">
+        <v>1583971200</v>
+      </c>
+      <c r="B1240" t="inlineStr">
+        <is>
+          <t>2020-03-12</t>
+        </is>
+      </c>
+      <c r="C1240" t="inlineStr">
+        <is>
+          <t>7139</t>
+        </is>
+      </c>
+      <c r="D1240" t="inlineStr">
+        <is>
+          <t>NICE</t>
+        </is>
+      </c>
+      <c r="E1240" t="n">
+        <v>0.035</v>
+      </c>
+      <c r="F1240" t="n">
+        <v>0.04</v>
+      </c>
+      <c r="G1240" t="n">
+        <v>0.035</v>
+      </c>
+      <c r="H1240" t="n">
+        <v>0.04</v>
+      </c>
+      <c r="I1240" t="n">
+        <v>880200</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/7139.xlsx
+++ b/data/7139.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I1240"/>
+  <dimension ref="A1:I1241"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -44056,6 +44056,41 @@
         <v>880200</v>
       </c>
     </row>
+    <row r="1241">
+      <c r="A1241" t="n">
+        <v>1584057600</v>
+      </c>
+      <c r="B1241" t="inlineStr">
+        <is>
+          <t>2020-03-13</t>
+        </is>
+      </c>
+      <c r="C1241" t="inlineStr">
+        <is>
+          <t>7139</t>
+        </is>
+      </c>
+      <c r="D1241" t="inlineStr">
+        <is>
+          <t>NICE</t>
+        </is>
+      </c>
+      <c r="E1241" t="n">
+        <v>0.035</v>
+      </c>
+      <c r="F1241" t="n">
+        <v>0.04</v>
+      </c>
+      <c r="G1241" t="n">
+        <v>0.035</v>
+      </c>
+      <c r="H1241" t="n">
+        <v>0.04</v>
+      </c>
+      <c r="I1241" t="n">
+        <v>1689200</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/7139.xlsx
+++ b/data/7139.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I1886"/>
+  <dimension ref="A1:I1887"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -66666,6 +66666,41 @@
         <v>1689200</v>
       </c>
     </row>
+    <row r="1887">
+      <c r="A1887" t="n">
+        <v>1584316800</v>
+      </c>
+      <c r="B1887" t="inlineStr">
+        <is>
+          <t>2020-03-16</t>
+        </is>
+      </c>
+      <c r="C1887" t="inlineStr">
+        <is>
+          <t>7139</t>
+        </is>
+      </c>
+      <c r="D1887" t="inlineStr">
+        <is>
+          <t>NICE</t>
+        </is>
+      </c>
+      <c r="E1887" t="n">
+        <v>0.035</v>
+      </c>
+      <c r="F1887" t="n">
+        <v>0.04</v>
+      </c>
+      <c r="G1887" t="n">
+        <v>0.035</v>
+      </c>
+      <c r="H1887" t="n">
+        <v>0.04</v>
+      </c>
+      <c r="I1887" t="n">
+        <v>106200</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/7139.xlsx
+++ b/data/7139.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I1887"/>
+  <dimension ref="A1:I1888"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -66701,6 +66701,41 @@
         <v>106200</v>
       </c>
     </row>
+    <row r="1888">
+      <c r="A1888" t="n">
+        <v>1584403200</v>
+      </c>
+      <c r="B1888" t="inlineStr">
+        <is>
+          <t>2020-03-17</t>
+        </is>
+      </c>
+      <c r="C1888" t="inlineStr">
+        <is>
+          <t>7139</t>
+        </is>
+      </c>
+      <c r="D1888" t="inlineStr">
+        <is>
+          <t>NICE</t>
+        </is>
+      </c>
+      <c r="E1888" t="n">
+        <v>0.03</v>
+      </c>
+      <c r="F1888" t="n">
+        <v>0.04</v>
+      </c>
+      <c r="G1888" t="n">
+        <v>0.03</v>
+      </c>
+      <c r="H1888" t="n">
+        <v>0.04</v>
+      </c>
+      <c r="I1888" t="n">
+        <v>30300</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/7139.xlsx
+++ b/data/7139.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I1888"/>
+  <dimension ref="A1:I1889"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -66736,6 +66736,41 @@
         <v>30300</v>
       </c>
     </row>
+    <row r="1889">
+      <c r="A1889" t="n">
+        <v>1584489600</v>
+      </c>
+      <c r="B1889" t="inlineStr">
+        <is>
+          <t>2020-03-18</t>
+        </is>
+      </c>
+      <c r="C1889" t="inlineStr">
+        <is>
+          <t>7139</t>
+        </is>
+      </c>
+      <c r="D1889" t="inlineStr">
+        <is>
+          <t>NICE</t>
+        </is>
+      </c>
+      <c r="E1889" t="n">
+        <v>0.03</v>
+      </c>
+      <c r="F1889" t="n">
+        <v>0.035</v>
+      </c>
+      <c r="G1889" t="n">
+        <v>0.03</v>
+      </c>
+      <c r="H1889" t="n">
+        <v>0.035</v>
+      </c>
+      <c r="I1889" t="n">
+        <v>69500</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/7139.xlsx
+++ b/data/7139.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I1889"/>
+  <dimension ref="A1:I1890"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -66771,6 +66771,41 @@
         <v>69500</v>
       </c>
     </row>
+    <row r="1890">
+      <c r="A1890" t="n">
+        <v>1584576000</v>
+      </c>
+      <c r="B1890" t="inlineStr">
+        <is>
+          <t>2020-03-19</t>
+        </is>
+      </c>
+      <c r="C1890" t="inlineStr">
+        <is>
+          <t>7139</t>
+        </is>
+      </c>
+      <c r="D1890" t="inlineStr">
+        <is>
+          <t>NICE</t>
+        </is>
+      </c>
+      <c r="E1890" t="n">
+        <v>0.03</v>
+      </c>
+      <c r="F1890" t="n">
+        <v>0.035</v>
+      </c>
+      <c r="G1890" t="n">
+        <v>0.03</v>
+      </c>
+      <c r="H1890" t="n">
+        <v>0.035</v>
+      </c>
+      <c r="I1890" t="n">
+        <v>349600</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/7139.xlsx
+++ b/data/7139.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I1890"/>
+  <dimension ref="A1:I1891"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -66806,6 +66806,41 @@
         <v>349600</v>
       </c>
     </row>
+    <row r="1891">
+      <c r="A1891" t="n">
+        <v>1584662400</v>
+      </c>
+      <c r="B1891" t="inlineStr">
+        <is>
+          <t>2020-03-20</t>
+        </is>
+      </c>
+      <c r="C1891" t="inlineStr">
+        <is>
+          <t>7139</t>
+        </is>
+      </c>
+      <c r="D1891" t="inlineStr">
+        <is>
+          <t>NICE</t>
+        </is>
+      </c>
+      <c r="E1891" t="n">
+        <v>0.03</v>
+      </c>
+      <c r="F1891" t="n">
+        <v>0.04</v>
+      </c>
+      <c r="G1891" t="n">
+        <v>0.03</v>
+      </c>
+      <c r="H1891" t="n">
+        <v>0.04</v>
+      </c>
+      <c r="I1891" t="n">
+        <v>530900</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/7139.xlsx
+++ b/data/7139.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I1891"/>
+  <dimension ref="A1:I1892"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -66841,6 +66841,41 @@
         <v>530900</v>
       </c>
     </row>
+    <row r="1892">
+      <c r="A1892" t="n">
+        <v>1584921600</v>
+      </c>
+      <c r="B1892" t="inlineStr">
+        <is>
+          <t>2020-03-23</t>
+        </is>
+      </c>
+      <c r="C1892" t="inlineStr">
+        <is>
+          <t>7139</t>
+        </is>
+      </c>
+      <c r="D1892" t="inlineStr">
+        <is>
+          <t>NICE</t>
+        </is>
+      </c>
+      <c r="E1892" t="n">
+        <v>0.04</v>
+      </c>
+      <c r="F1892" t="n">
+        <v>0.04</v>
+      </c>
+      <c r="G1892" t="n">
+        <v>0.04</v>
+      </c>
+      <c r="H1892" t="n">
+        <v>0.04</v>
+      </c>
+      <c r="I1892" t="n">
+        <v>22500000</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/7139.xlsx
+++ b/data/7139.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I1892"/>
+  <dimension ref="A1:I1893"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -66876,6 +66876,41 @@
         <v>22500000</v>
       </c>
     </row>
+    <row r="1893">
+      <c r="A1893" t="n">
+        <v>1585008000</v>
+      </c>
+      <c r="B1893" t="inlineStr">
+        <is>
+          <t>2020-03-24</t>
+        </is>
+      </c>
+      <c r="C1893" t="inlineStr">
+        <is>
+          <t>7139</t>
+        </is>
+      </c>
+      <c r="D1893" t="inlineStr">
+        <is>
+          <t>NICE</t>
+        </is>
+      </c>
+      <c r="E1893" t="n">
+        <v>0.035</v>
+      </c>
+      <c r="F1893" t="n">
+        <v>0.04</v>
+      </c>
+      <c r="G1893" t="n">
+        <v>0.03</v>
+      </c>
+      <c r="H1893" t="n">
+        <v>0.04</v>
+      </c>
+      <c r="I1893" t="n">
+        <v>73200</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/7139.xlsx
+++ b/data/7139.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I1893"/>
+  <dimension ref="A1:I1894"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -66911,6 +66911,43 @@
         <v>73200</v>
       </c>
     </row>
+    <row r="1894">
+      <c r="A1894" t="n">
+        <v>1585094400</v>
+      </c>
+      <c r="B1894" t="inlineStr">
+        <is>
+          <t>2020-03-25</t>
+        </is>
+      </c>
+      <c r="C1894" t="inlineStr">
+        <is>
+          <t>7139</t>
+        </is>
+      </c>
+      <c r="D1894" t="inlineStr">
+        <is>
+          <t>NICE</t>
+        </is>
+      </c>
+      <c r="E1894" t="n">
+        <v>0.04</v>
+      </c>
+      <c r="F1894" t="n">
+        <v>0.04</v>
+      </c>
+      <c r="G1894" t="n">
+        <v>0.04</v>
+      </c>
+      <c r="H1894" t="n">
+        <v>0.04</v>
+      </c>
+      <c r="I1894" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/7139.xlsx
+++ b/data/7139.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I1894"/>
+  <dimension ref="A1:I1895"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -66948,6 +66948,41 @@
         </is>
       </c>
     </row>
+    <row r="1895">
+      <c r="A1895" t="n">
+        <v>1585180800</v>
+      </c>
+      <c r="B1895" t="inlineStr">
+        <is>
+          <t>2020-03-26</t>
+        </is>
+      </c>
+      <c r="C1895" t="inlineStr">
+        <is>
+          <t>7139</t>
+        </is>
+      </c>
+      <c r="D1895" t="inlineStr">
+        <is>
+          <t>NICE</t>
+        </is>
+      </c>
+      <c r="E1895" t="n">
+        <v>0.035</v>
+      </c>
+      <c r="F1895" t="n">
+        <v>0.04</v>
+      </c>
+      <c r="G1895" t="n">
+        <v>0.035</v>
+      </c>
+      <c r="H1895" t="n">
+        <v>0.035</v>
+      </c>
+      <c r="I1895" t="n">
+        <v>127000</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/7139.xlsx
+++ b/data/7139.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I1895"/>
+  <dimension ref="A1:I1896"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -66983,6 +66983,41 @@
         <v>127000</v>
       </c>
     </row>
+    <row r="1896">
+      <c r="A1896" t="n">
+        <v>1585267200</v>
+      </c>
+      <c r="B1896" t="inlineStr">
+        <is>
+          <t>2020-03-27</t>
+        </is>
+      </c>
+      <c r="C1896" t="inlineStr">
+        <is>
+          <t>7139</t>
+        </is>
+      </c>
+      <c r="D1896" t="inlineStr">
+        <is>
+          <t>NICE</t>
+        </is>
+      </c>
+      <c r="E1896" t="n">
+        <v>0.04</v>
+      </c>
+      <c r="F1896" t="n">
+        <v>0.04</v>
+      </c>
+      <c r="G1896" t="n">
+        <v>0.04</v>
+      </c>
+      <c r="H1896" t="n">
+        <v>0.04</v>
+      </c>
+      <c r="I1896" t="n">
+        <v>5100</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/7139.xlsx
+++ b/data/7139.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I1896"/>
+  <dimension ref="A1:I1897"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -67018,6 +67018,43 @@
         <v>5100</v>
       </c>
     </row>
+    <row r="1897">
+      <c r="A1897" t="n">
+        <v>1585526400</v>
+      </c>
+      <c r="B1897" t="inlineStr">
+        <is>
+          <t>2020-03-30</t>
+        </is>
+      </c>
+      <c r="C1897" t="inlineStr">
+        <is>
+          <t>7139</t>
+        </is>
+      </c>
+      <c r="D1897" t="inlineStr">
+        <is>
+          <t>NICE</t>
+        </is>
+      </c>
+      <c r="E1897" t="n">
+        <v>0.04</v>
+      </c>
+      <c r="F1897" t="n">
+        <v>0.04</v>
+      </c>
+      <c r="G1897" t="n">
+        <v>0.04</v>
+      </c>
+      <c r="H1897" t="n">
+        <v>0.04</v>
+      </c>
+      <c r="I1897" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/7139.xlsx
+++ b/data/7139.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I1897"/>
+  <dimension ref="A1:I1898"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -67055,6 +67055,43 @@
         </is>
       </c>
     </row>
+    <row r="1898">
+      <c r="A1898" t="n">
+        <v>1585612800</v>
+      </c>
+      <c r="B1898" t="inlineStr">
+        <is>
+          <t>2020-03-31</t>
+        </is>
+      </c>
+      <c r="C1898" t="inlineStr">
+        <is>
+          <t>7139</t>
+        </is>
+      </c>
+      <c r="D1898" t="inlineStr">
+        <is>
+          <t>NICE</t>
+        </is>
+      </c>
+      <c r="E1898" t="n">
+        <v>0.04</v>
+      </c>
+      <c r="F1898" t="n">
+        <v>0.04</v>
+      </c>
+      <c r="G1898" t="n">
+        <v>0.04</v>
+      </c>
+      <c r="H1898" t="n">
+        <v>0.04</v>
+      </c>
+      <c r="I1898" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/7139.xlsx
+++ b/data/7139.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I1898"/>
+  <dimension ref="A1:I1899"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -67092,6 +67092,41 @@
         </is>
       </c>
     </row>
+    <row r="1899">
+      <c r="A1899" t="n">
+        <v>1585699200</v>
+      </c>
+      <c r="B1899" t="inlineStr">
+        <is>
+          <t>2020-04-01</t>
+        </is>
+      </c>
+      <c r="C1899" t="inlineStr">
+        <is>
+          <t>7139</t>
+        </is>
+      </c>
+      <c r="D1899" t="inlineStr">
+        <is>
+          <t>NICE</t>
+        </is>
+      </c>
+      <c r="E1899" t="n">
+        <v>0.035</v>
+      </c>
+      <c r="F1899" t="n">
+        <v>0.04</v>
+      </c>
+      <c r="G1899" t="n">
+        <v>0.035</v>
+      </c>
+      <c r="H1899" t="n">
+        <v>0.04</v>
+      </c>
+      <c r="I1899" t="n">
+        <v>367000</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/7139.xlsx
+++ b/data/7139.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I1899"/>
+  <dimension ref="A1:I1900"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -67127,6 +67127,41 @@
         <v>367000</v>
       </c>
     </row>
+    <row r="1900">
+      <c r="A1900" t="n">
+        <v>1585785600</v>
+      </c>
+      <c r="B1900" t="inlineStr">
+        <is>
+          <t>2020-04-02</t>
+        </is>
+      </c>
+      <c r="C1900" t="inlineStr">
+        <is>
+          <t>7139</t>
+        </is>
+      </c>
+      <c r="D1900" t="inlineStr">
+        <is>
+          <t>NICE</t>
+        </is>
+      </c>
+      <c r="E1900" t="n">
+        <v>0.04</v>
+      </c>
+      <c r="F1900" t="n">
+        <v>0.04</v>
+      </c>
+      <c r="G1900" t="n">
+        <v>0.035</v>
+      </c>
+      <c r="H1900" t="n">
+        <v>0.04</v>
+      </c>
+      <c r="I1900" t="n">
+        <v>62000</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/7139.xlsx
+++ b/data/7139.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I1900"/>
+  <dimension ref="A1:I1901"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -67162,6 +67162,41 @@
         <v>62000</v>
       </c>
     </row>
+    <row r="1901">
+      <c r="A1901" t="n">
+        <v>1585872000</v>
+      </c>
+      <c r="B1901" t="inlineStr">
+        <is>
+          <t>2020-04-03</t>
+        </is>
+      </c>
+      <c r="C1901" t="inlineStr">
+        <is>
+          <t>7139</t>
+        </is>
+      </c>
+      <c r="D1901" t="inlineStr">
+        <is>
+          <t>NICE</t>
+        </is>
+      </c>
+      <c r="E1901" t="n">
+        <v>0.035</v>
+      </c>
+      <c r="F1901" t="n">
+        <v>0.04</v>
+      </c>
+      <c r="G1901" t="n">
+        <v>0.035</v>
+      </c>
+      <c r="H1901" t="n">
+        <v>0.04</v>
+      </c>
+      <c r="I1901" t="n">
+        <v>155000</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
